--- a/Excel/Planilhas Principais/Geral/Testes.xlsx
+++ b/Excel/Planilhas Principais/Geral/Testes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\Planilhas Principais\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1FB37-E696-464E-BB8C-EDA6B071C366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3510CC-C97C-4207-9793-70E3B47AFD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{9CB205BE-FD1C-4C17-8D48-270FBDF623AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{9CB205BE-FD1C-4C17-8D48-270FBDF623AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="182">
   <si>
     <t>WAVE1</t>
   </si>
@@ -567,6 +567,27 @@
   <si>
     <t>Graus de Liberdade</t>
   </si>
+  <si>
+    <t>Testes não Paramétricos:</t>
+  </si>
+  <si>
+    <t>Resgitros</t>
+  </si>
+  <si>
+    <t>Mann - Whitney</t>
+  </si>
+  <si>
+    <t>Wilcoxon</t>
+  </si>
+  <si>
+    <t>Covariancia</t>
+  </si>
+  <si>
+    <t>registros</t>
+  </si>
+  <si>
+    <t>espécies</t>
+  </si>
 </sst>
 </file>
 
@@ -795,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,6 +937,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,7 +1334,7 @@
   <dimension ref="A1:R632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="E1" sqref="E1:H632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21707,7 +21741,7 @@
   <dimension ref="A1:U143"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25597,7 +25631,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27048,7 +27082,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88577,7 +88611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001B641B-CF80-44BD-A6D3-64A5BD3286A4}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -88629,16 +88663,16 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
@@ -88710,20 +88744,20 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L11" s="32"/>
-      <c r="M11" s="57" t="s">
+      <c r="M11" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57" t="s">
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
@@ -88870,20 +88904,20 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L19" s="32"/>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57" t="s">
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L20" s="41"/>
@@ -89389,14 +89423,233 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18010CF6-58B9-4CCB-BD36-FD83501A558D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="13" width="8.88671875" style="29"/>
+    <col min="14" max="14" width="10.77734375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="29"/>
+    <col min="17" max="17" width="9.5546875" style="29" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="58">
+        <v>23538.5</v>
+      </c>
+      <c r="D4" s="58">
+        <v>17652</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="58">
+        <v>14985</v>
+      </c>
+      <c r="H4" s="58">
+        <v>15051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="H5" s="59">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="32"/>
+      <c r="M11" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="S11" s="61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L12" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="29">
+        <v>12.48</v>
+      </c>
+      <c r="N12" s="29">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="O12" s="29">
+        <v>43.5</v>
+      </c>
+      <c r="P12" s="29">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" s="62">
+        <v>1E-4</v>
+      </c>
+      <c r="N13" s="64">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="O13" s="62">
+        <v>1E-4</v>
+      </c>
+      <c r="P13" s="64">
+        <v>2.93E-2</v>
+      </c>
+      <c r="Q13" s="64">
+        <v>1.1350000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="32"/>
+      <c r="M16" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="29">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="N17" s="29">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="O17" s="29">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="P17" s="29">
+        <v>8.17</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0.39169999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="N18" s="64">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="O18" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="P18" s="64">
+        <v>4.3730000000000002E-3</v>
+      </c>
+      <c r="Q18" s="64">
+        <v>0.53159999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L19" s="30"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -89753,7 +90006,7 @@
         <v>0.79549999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>88</v>
       </c>
@@ -90257,8 +90510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B88AB6A-7A2D-495D-80F8-714616FE22E5}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/Planilhas Principais/Geral/Testes.xlsx
+++ b/Excel/Planilhas Principais/Geral/Testes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\Planilhas Principais\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3510CC-C97C-4207-9793-70E3B47AFD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E833693-3573-44C7-B193-C435B362A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{9CB205BE-FD1C-4C17-8D48-270FBDF623AE}"/>
   </bookViews>
@@ -593,8 +593,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -816,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,9 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,6 +948,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88663,16 +88667,16 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
@@ -88744,20 +88748,20 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L11" s="32"/>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
@@ -88904,20 +88908,20 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L19" s="32"/>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60" t="s">
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L20" s="41"/>
@@ -89426,7 +89430,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K15" sqref="K15:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -89469,16 +89473,16 @@
       <c r="C4" s="58">
         <v>23538.5</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="66">
         <v>17652</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="66">
         <v>14985</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="66">
         <v>15051</v>
       </c>
     </row>
@@ -89535,7 +89539,7 @@
       <c r="Q11" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="S11" s="61" t="s">
+      <c r="S11" s="60" t="s">
         <v>180</v>
       </c>
     </row>
@@ -89543,19 +89547,19 @@
       <c r="L12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="67">
         <v>12.48</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="65">
         <v>2.2629999999999999</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="65">
         <v>43.5</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="67">
         <v>4.7670000000000003</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="67">
         <v>6.44</v>
       </c>
     </row>
@@ -89563,19 +89567,19 @@
       <c r="L13" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="61">
         <v>1E-4</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="63">
         <v>0.13289999999999999</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="61">
         <v>1E-4</v>
       </c>
-      <c r="P13" s="64">
+      <c r="P13" s="63">
         <v>2.93E-2</v>
       </c>
-      <c r="Q13" s="64">
+      <c r="Q13" s="39">
         <v>1.1350000000000001E-2</v>
       </c>
     </row>
@@ -89602,7 +89606,7 @@
       <c r="Q16" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="S16" s="61" t="s">
+      <c r="S16" s="60" t="s">
         <v>181</v>
       </c>
     </row>
@@ -89610,19 +89614,19 @@
       <c r="L17" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="67">
         <v>4.9939999999999998</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="65">
         <v>2.0139999999999998</v>
       </c>
       <c r="O17" s="29">
         <v>18.739999999999998</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="67">
         <v>8.17</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="65">
         <v>0.39169999999999999</v>
       </c>
     </row>
@@ -89630,19 +89634,19 @@
       <c r="L18" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M18" s="63">
+      <c r="M18" s="62">
         <v>1E-4</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="63">
         <v>0.15620000000000001</v>
       </c>
-      <c r="O18" s="63">
+      <c r="O18" s="62">
         <v>1E-4</v>
       </c>
-      <c r="P18" s="64">
+      <c r="P18" s="39">
         <v>4.3730000000000002E-3</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="63">
         <v>0.53159999999999996</v>
       </c>
     </row>
@@ -89658,8 +89662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408E699A-66C5-4EEC-84CF-2FA8C8B3EAA8}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/Planilhas Principais/Geral/Testes.xlsx
+++ b/Excel/Planilhas Principais/Geral/Testes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\Planilhas Principais\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E833693-3573-44C7-B193-C435B362A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310349D7-CFC6-4193-80B1-257E229C49F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{9CB205BE-FD1C-4C17-8D48-270FBDF623AE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{9CB205BE-FD1C-4C17-8D48-270FBDF623AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,18 +18,19 @@
     <sheet name="Dados 3" sheetId="31" state="hidden" r:id="rId3"/>
     <sheet name="Tabelas 1" sheetId="30" r:id="rId4"/>
     <sheet name="Tabelas 2" sheetId="32" r:id="rId5"/>
-    <sheet name="Tabelas 3" sheetId="34" r:id="rId6"/>
-    <sheet name="Aconva 1" sheetId="27" r:id="rId7"/>
-    <sheet name="Ancova 2" sheetId="28" r:id="rId8"/>
-    <sheet name="Normalidade" sheetId="5" r:id="rId9"/>
-    <sheet name="Levene" sheetId="26" r:id="rId10"/>
-    <sheet name="Teste T" sheetId="2" r:id="rId11"/>
-    <sheet name="Mann Whitney" sheetId="4" r:id="rId12"/>
-    <sheet name="Teste T pareado" sheetId="3" r:id="rId13"/>
-    <sheet name="Wilcoxon" sheetId="19" r:id="rId14"/>
+    <sheet name="Aconva 1" sheetId="27" r:id="rId6"/>
+    <sheet name="Ancova 2" sheetId="28" r:id="rId7"/>
+    <sheet name="Tabelas 3" sheetId="34" r:id="rId8"/>
+    <sheet name="Planilha1" sheetId="35" r:id="rId9"/>
+    <sheet name="Normalidade" sheetId="5" r:id="rId10"/>
+    <sheet name="Levene" sheetId="26" r:id="rId11"/>
+    <sheet name="Teste T" sheetId="2" r:id="rId12"/>
+    <sheet name="Mann Whitney" sheetId="4" r:id="rId13"/>
+    <sheet name="Teste T pareado" sheetId="3" r:id="rId14"/>
+    <sheet name="Wilcoxon" sheetId="19" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="197">
   <si>
     <t>WAVE1</t>
   </si>
@@ -588,6 +589,51 @@
   <si>
     <t>espécies</t>
   </si>
+  <si>
+    <t>Tests for equal medians</t>
+  </si>
+  <si>
+    <t>SLIAL</t>
+  </si>
+  <si>
+    <t>N:</t>
+  </si>
+  <si>
+    <t>Mean rank:</t>
+  </si>
+  <si>
+    <t>Mann-Whitn U :</t>
+  </si>
+  <si>
+    <t>z :</t>
+  </si>
+  <si>
+    <t>p (same med.):</t>
+  </si>
+  <si>
+    <t>Monte Carlo permutation:</t>
+  </si>
+  <si>
+    <t>Altitude:</t>
+  </si>
+  <si>
+    <t>SLIAR</t>
+  </si>
+  <si>
+    <t>SLIPOP</t>
+  </si>
+  <si>
+    <t>SLILA</t>
+  </si>
+  <si>
+    <t>SLILO</t>
+  </si>
+  <si>
+    <t>Mann-Whitney</t>
+  </si>
+  <si>
+    <t>Inclinação</t>
+  </si>
 </sst>
 </file>
 
@@ -817,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,12 +994,44 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21648,6 +21726,1206 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843C2F2E-5D9C-4256-8201-6823B8716D50}">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="str">
+        <f>Dados!A1</f>
+        <v>WAVE1</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Dados!B1</f>
+        <v>SLIE1</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>Dados!C1</f>
+        <v>WAVR1</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>Dados!D1</f>
+        <v>SLIR1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f>[1]!SHAPIRO(Dados!A2:A174)</f>
+        <v>0.80115848119077926</v>
+      </c>
+      <c r="C4">
+        <f>[1]!SHAPIRO(Dados!B2:B174)</f>
+        <v>0.91075107430939484</v>
+      </c>
+      <c r="D4">
+        <f>[1]!SHAPIRO(Dados!C2:C174)</f>
+        <v>0.9855062782864521</v>
+      </c>
+      <c r="E4">
+        <f>[1]!SHAPIRO(Dados!D2:D174)</f>
+        <v>0.91033827950116231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>[1]!SWTEST(Dados!A2:A174)</f>
+        <v>4.496403249731884E-14</v>
+      </c>
+      <c r="C5">
+        <f>[1]!SWTEST(Dados!B2:B174)</f>
+        <v>9.2526831751982286E-9</v>
+      </c>
+      <c r="D5" s="14">
+        <f>[1]!SWTEST(Dados!C2:C174)</f>
+        <v>7.0246734004590028E-2</v>
+      </c>
+      <c r="E5">
+        <f>[1]!SWTEST(Dados!D2:D174)</f>
+        <v>8.704168608097973E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>IF(B5&lt;B6,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IF(C5&lt;C6,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>IF(D5&lt;D6,"no","yes")</f>
+        <v>yes</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>IF(E5&lt;E6,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <f>[1]!DAGOSTINO(Dados!A2:A174)</f>
+        <v>109.55819195047548</v>
+      </c>
+      <c r="C11" s="5">
+        <f>[1]!DAGOSTINO(Dados!B2:B174)</f>
+        <v>68.111456812572357</v>
+      </c>
+      <c r="D11" s="5">
+        <f>[1]!DAGOSTINO(Dados!C2:C174)</f>
+        <v>7.1475993323234217</v>
+      </c>
+      <c r="E11" s="5">
+        <f>[1]!DAGOSTINO(Dados!D2:D174)</f>
+        <v>18.44494768419888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>[1]!DPTEST(Dados!A2:A174)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>[1]!DPTEST(Dados!B2:B174)</f>
+        <v>1.6653345369377348E-15</v>
+      </c>
+      <c r="D12">
+        <f>[1]!DPTEST(Dados!C2:C174)</f>
+        <v>2.8049073828181559E-2</v>
+      </c>
+      <c r="E12">
+        <f>[1]!DPTEST(Dados!D2:D174)</f>
+        <v>9.8793984360967535E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>IF(B12&lt;B13,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IF(C12&lt;C13,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>IF(D12&lt;D13,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>IF(E12&lt;E13,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="str">
+        <f>Dados!E1</f>
+        <v>SPLE2</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Dados!F1</f>
+        <v>WAVE2</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>Dados!G1</f>
+        <v>WAVR2</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>Dados!H1</f>
+        <v>SPLR2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f>[1]!SHAPIRO(Dados!E2:E632)</f>
+        <v>0.90918789145671364</v>
+      </c>
+      <c r="C19">
+        <f>[1]!SHAPIRO(Dados!F2:F632)</f>
+        <v>0.89584128023351739</v>
+      </c>
+      <c r="D19">
+        <f>[1]!SHAPIRO(Dados!G2:G632)</f>
+        <v>0.99477722998603646</v>
+      </c>
+      <c r="E19">
+        <f>[1]!SHAPIRO(Dados!H2:H632)</f>
+        <v>0.90917695465804693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f>[1]!SWTEST(Dados!E2:E632)</f>
+        <v>6.8084902160592264E-9</v>
+      </c>
+      <c r="C20">
+        <f>[1]!SWTEST(Dados!F2:F632)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>[1]!SWTEST(Dados!G2:G632)</f>
+        <v>3.0106380813000544E-2</v>
+      </c>
+      <c r="E20">
+        <f>[1]!SWTEST(Dados!H2:H632)</f>
+        <v>6.7975506334860825E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.05</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>0.05</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>IF(B20&lt;B21,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF(C20&lt;C21,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>IF(D20&lt;D21,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>IF(E20&lt;E21,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <f>[1]!DAGOSTINO(Dados!E2:E632)</f>
+        <v>68.294643969736057</v>
+      </c>
+      <c r="C26" s="5">
+        <f>[1]!DAGOSTINO(Dados!F2:F632)</f>
+        <v>107.93004783633144</v>
+      </c>
+      <c r="D26" s="5">
+        <f>[1]!DAGOSTINO(Dados!G2:G632)</f>
+        <v>4.34119996282132</v>
+      </c>
+      <c r="E26" s="5">
+        <f>[1]!DAGOSTINO(Dados!H2:H632)</f>
+        <v>18.482701794256801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <f>[1]!DPTEST(Dados!E2:E632)</f>
+        <v>1.4432899320127035E-15</v>
+      </c>
+      <c r="C27">
+        <f>[1]!DPTEST(Dados!F2:F632)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <f>[1]!DPTEST(Dados!G2:G632)</f>
+        <v>0.11410913300976466</v>
+      </c>
+      <c r="E27">
+        <f>[1]!DPTEST(Dados!H2:H632)</f>
+        <v>9.6946536925157645E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+      <c r="D28">
+        <v>0.05</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>IF(B27&lt;B28,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IF(C27&lt;C28,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <f>IF(D27&lt;D28,"no","yes")</f>
+        <v>yes</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f>IF(E27&lt;E28,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="str">
+        <f>Dados!I1</f>
+        <v>WAVAR</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f>Dados!J1</f>
+        <v>WAVAL</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>Dados!K1</f>
+        <v>WAVPOP</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>Dados!L1</f>
+        <v>WAVLA</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>Dados!M1</f>
+        <v>WAVLO</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>Dados!N1</f>
+        <v>SPLAL</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>Dados!O1</f>
+        <v>SPLAR</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f>Dados!P1</f>
+        <v>SPLPOP</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f>Dados!Q1</f>
+        <v>SPLLA</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f>Dados!R1</f>
+        <v>SPLLO</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <f>[1]!SHAPIRO(Dados!I2:I632)</f>
+        <v>0.98361598971704423</v>
+      </c>
+      <c r="C36">
+        <f>[1]!SHAPIRO(Dados!J2:J632)</f>
+        <v>0.94388025710353329</v>
+      </c>
+      <c r="D36">
+        <f>[1]!SHAPIRO(Dados!K2:K632)</f>
+        <v>0.96737114695403092</v>
+      </c>
+      <c r="E36">
+        <f>[1]!SHAPIRO(Dados!L2:L632)</f>
+        <v>0.97964699031475488</v>
+      </c>
+      <c r="F36">
+        <f>[1]!SHAPIRO(Dados!M2:M632)</f>
+        <v>0.98776191861219853</v>
+      </c>
+      <c r="G36">
+        <f>[1]!SHAPIRO(Dados!N2:N632)</f>
+        <v>0.89459825272708005</v>
+      </c>
+      <c r="H36">
+        <f>[1]!SHAPIRO(Dados!O2:O632)</f>
+        <v>0.93311569230547864</v>
+      </c>
+      <c r="I36">
+        <f>[1]!SHAPIRO(Dados!P2:P632)</f>
+        <v>0.9774526639216351</v>
+      </c>
+      <c r="J36">
+        <f>[1]!SHAPIRO(Dados!Q2:Q632)</f>
+        <v>0.9834380740070624</v>
+      </c>
+      <c r="K36">
+        <f>[1]!SHAPIRO(Dados!R2:R632)</f>
+        <v>0.96576718406084261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <f>[1]!SWTEST(Dados!I2:I632)</f>
+        <v>1.6122575535737482E-6</v>
+      </c>
+      <c r="C37">
+        <f>[1]!SWTEST(Dados!J2:J632)</f>
+        <v>1.0325074129013956E-14</v>
+      </c>
+      <c r="D37">
+        <f>[1]!SWTEST(Dados!K2:K632)</f>
+        <v>1.2327960874358723E-10</v>
+      </c>
+      <c r="E37">
+        <f>[1]!SWTEST(Dados!L2:L632)</f>
+        <v>1.0927364491042368E-7</v>
+      </c>
+      <c r="F37">
+        <f>[1]!SWTEST(Dados!M2:M632)</f>
+        <v>3.9506006302758578E-5</v>
+      </c>
+      <c r="G37">
+        <f>[1]!SWTEST(Dados!N2:N632)</f>
+        <v>8.801634976407513E-10</v>
+      </c>
+      <c r="H37">
+        <f>[1]!SWTEST(Dados!O2:O632)</f>
+        <v>3.188259197761667E-7</v>
+      </c>
+      <c r="I37">
+        <f>[1]!SWTEST(Dados!P2:P632)</f>
+        <v>6.2920627456956035E-3</v>
+      </c>
+      <c r="J37">
+        <f>[1]!SWTEST(Dados!Q2:Q632)</f>
+        <v>3.6685806763014361E-2</v>
+      </c>
+      <c r="K37">
+        <f>[1]!SWTEST(Dados!R2:R632)</f>
+        <v>2.810310972291008E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>0.05</v>
+      </c>
+      <c r="C38">
+        <v>0.05</v>
+      </c>
+      <c r="D38">
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+      <c r="F38">
+        <v>0.05</v>
+      </c>
+      <c r="G38">
+        <v>0.05</v>
+      </c>
+      <c r="H38">
+        <v>0.05</v>
+      </c>
+      <c r="I38">
+        <v>0.05</v>
+      </c>
+      <c r="J38">
+        <v>0.05</v>
+      </c>
+      <c r="K38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" ref="B39:K39" si="0">IF(B37&lt;B38,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="H39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="5">
+        <f>[1]!DAGOSTINO(Dados!I2:I632)</f>
+        <v>38.407345665923629</v>
+      </c>
+      <c r="C43" s="5">
+        <f>[1]!DAGOSTINO(Dados!J2:J632)</f>
+        <v>46.787642811143257</v>
+      </c>
+      <c r="D43" s="5">
+        <f>[1]!DAGOSTINO(Dados!K2:K632)</f>
+        <v>44.223829666217796</v>
+      </c>
+      <c r="E43" s="5">
+        <f>[1]!DAGOSTINO(Dados!L2:L632)</f>
+        <v>67.402751293284126</v>
+      </c>
+      <c r="F43" s="5">
+        <f>[1]!DAGOSTINO(Dados!M2:M632)</f>
+        <v>32.513336793123308</v>
+      </c>
+      <c r="G43" s="5">
+        <f>[1]!DAGOSTINO(Dados!N2:N632)</f>
+        <v>12.406985584980831</v>
+      </c>
+      <c r="H43" s="5">
+        <f>[1]!DAGOSTINO(Dados!O2:O632)</f>
+        <v>49.259330225087247</v>
+      </c>
+      <c r="I43" s="5">
+        <f>[1]!DAGOSTINO(Dados!P2:P632)</f>
+        <v>10.077979807949475</v>
+      </c>
+      <c r="J43" s="5">
+        <f>[1]!DAGOSTINO(Dados!Q2:Q632)</f>
+        <v>6.463848033839092</v>
+      </c>
+      <c r="K43" s="5">
+        <f>[1]!DAGOSTINO(Dados!R2:R632)</f>
+        <v>14.362008586804965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <f>[1]!DPTEST(Dados!I2:I632)</f>
+        <v>4.570364642297875E-9</v>
+      </c>
+      <c r="C44">
+        <f>[1]!DPTEST(Dados!J2:J632)</f>
+        <v>6.9213745845786434E-11</v>
+      </c>
+      <c r="D44">
+        <f>[1]!DPTEST(Dados!K2:K632)</f>
+        <v>2.4941204657125127E-10</v>
+      </c>
+      <c r="E44">
+        <f>[1]!DPTEST(Dados!L2:L632)</f>
+        <v>2.3314683517128287E-15</v>
+      </c>
+      <c r="F44">
+        <f>[1]!DPTEST(Dados!M2:M632)</f>
+        <v>8.7059991660254354E-8</v>
+      </c>
+      <c r="G44">
+        <f>[1]!DPTEST(Dados!N2:N632)</f>
+        <v>2.0223546209298116E-3</v>
+      </c>
+      <c r="H44">
+        <f>[1]!DPTEST(Dados!O2:O632)</f>
+        <v>2.0112800314109336E-11</v>
+      </c>
+      <c r="I44">
+        <f>[1]!DPTEST(Dados!P2:P632)</f>
+        <v>6.480290729409699E-3</v>
+      </c>
+      <c r="J44">
+        <f>[1]!DPTEST(Dados!Q2:Q632)</f>
+        <v>3.9481462662287581E-2</v>
+      </c>
+      <c r="K44">
+        <f>[1]!DPTEST(Dados!R2:R632)</f>
+        <v>7.6090328814459873E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>0.05</v>
+      </c>
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+      <c r="D45">
+        <v>0.05</v>
+      </c>
+      <c r="E45">
+        <v>0.05</v>
+      </c>
+      <c r="F45">
+        <v>0.05</v>
+      </c>
+      <c r="G45">
+        <v>0.05</v>
+      </c>
+      <c r="H45">
+        <v>0.05</v>
+      </c>
+      <c r="I45">
+        <v>0.05</v>
+      </c>
+      <c r="J45">
+        <v>0.05</v>
+      </c>
+      <c r="K45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f t="shared" ref="B46:K46" si="1">IF(B44&lt;B45,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="str">
+        <f>'Dados 3'!A1</f>
+        <v>WAVAL</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f>'Dados 3'!B1</f>
+        <v>SPLAL</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>'Dados 3'!C1</f>
+        <v>WAVAR</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f>'Dados 3'!D1</f>
+        <v>SPLAR</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f>'Dados 3'!E1</f>
+        <v>WAVP</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f>'Dados 3'!F1</f>
+        <v>SPLP</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f>'Dados 3'!G1</f>
+        <v>WALLA</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f>'Dados 3'!H1</f>
+        <v>SPLLA</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f>'Dados 3'!I1</f>
+        <v>WAVLO</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f>'Dados 3'!J1</f>
+        <v>SPLLO</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <f>[1]!SHAPIRO('Dados 3'!A2:A632)</f>
+        <v>0.96130328487052552</v>
+      </c>
+      <c r="C53">
+        <f>[1]!SHAPIRO('Dados 3'!B2:B632)</f>
+        <v>0.99381630746129668</v>
+      </c>
+      <c r="D53">
+        <f>[1]!SHAPIRO('Dados 3'!C2:C632)</f>
+        <v>0.99553289472392192</v>
+      </c>
+      <c r="E53">
+        <f>[1]!SHAPIRO('Dados 3'!D2:D632)</f>
+        <v>0.97699874649196106</v>
+      </c>
+      <c r="F53">
+        <f>[1]!SHAPIRO('Dados 3'!E2:E632)</f>
+        <v>0.97072711687836488</v>
+      </c>
+      <c r="G53">
+        <f>[1]!SHAPIRO('Dados 3'!F2:F632)</f>
+        <v>0.98401335914346855</v>
+      </c>
+      <c r="H53">
+        <f>[1]!SHAPIRO('Dados 3'!G2:G632)</f>
+        <v>0.97964699031475488</v>
+      </c>
+      <c r="I53">
+        <f>[1]!SHAPIRO('Dados 3'!H2:H632)</f>
+        <v>0.9834380740070624</v>
+      </c>
+      <c r="J53">
+        <f>[1]!SHAPIRO('Dados 3'!I2:I632)</f>
+        <v>0.98776191861219853</v>
+      </c>
+      <c r="K53">
+        <f>[1]!SHAPIRO('Dados 3'!J2:J632)</f>
+        <v>0.96576718406084261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <f>[1]!SWTEST('Dados 3'!A2:A632)</f>
+        <v>1.8200996265704816E-11</v>
+      </c>
+      <c r="C54">
+        <f>[1]!SWTEST('Dados 3'!B2:B632)</f>
+        <v>0.78368244621594163</v>
+      </c>
+      <c r="D54">
+        <f>[1]!SWTEST('Dados 3'!C2:C632)</f>
+        <v>6.9218013873360462E-2</v>
+      </c>
+      <c r="E54">
+        <f>[1]!SWTEST('Dados 3'!D2:D632)</f>
+        <v>6.1347448624313738E-3</v>
+      </c>
+      <c r="F54">
+        <f>[1]!SWTEST('Dados 3'!E2:E632)</f>
+        <v>6.7383054691561028E-10</v>
+      </c>
+      <c r="G54">
+        <f>[1]!SWTEST('Dados 3'!F2:F632)</f>
+        <v>4.4766711519299118E-2</v>
+      </c>
+      <c r="H54">
+        <f>[1]!SWTEST('Dados 3'!G2:G632)</f>
+        <v>1.0927364491042368E-7</v>
+      </c>
+      <c r="I54">
+        <f>[1]!SWTEST('Dados 3'!H2:H632)</f>
+        <v>3.6685806763014361E-2</v>
+      </c>
+      <c r="J54">
+        <f>[1]!SWTEST('Dados 3'!I2:I632)</f>
+        <v>3.9506006302758578E-5</v>
+      </c>
+      <c r="K54">
+        <f>[1]!SWTEST('Dados 3'!J2:J632)</f>
+        <v>2.810310972291008E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>0.05</v>
+      </c>
+      <c r="C55">
+        <v>0.05</v>
+      </c>
+      <c r="D55">
+        <v>0.05</v>
+      </c>
+      <c r="E55">
+        <v>0.05</v>
+      </c>
+      <c r="F55">
+        <v>0.05</v>
+      </c>
+      <c r="G55">
+        <v>0.05</v>
+      </c>
+      <c r="H55">
+        <v>0.05</v>
+      </c>
+      <c r="I55">
+        <v>0.05</v>
+      </c>
+      <c r="J55">
+        <v>0.05</v>
+      </c>
+      <c r="K55">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f t="shared" ref="B56:K56" si="2">IF(B54&lt;B55,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>yes</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!A2:A632)</f>
+        <v>44.940658383238741</v>
+      </c>
+      <c r="C60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!B2:B632)</f>
+        <v>0.37821704617404739</v>
+      </c>
+      <c r="D60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!C2:C632)</f>
+        <v>3.0961827377001594</v>
+      </c>
+      <c r="E60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!D2:D632)</f>
+        <v>12.320913591693291</v>
+      </c>
+      <c r="F60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!E2:E632)</f>
+        <v>31.57369913521557</v>
+      </c>
+      <c r="G60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!F2:F632)</f>
+        <v>5.9378505146490905</v>
+      </c>
+      <c r="H60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!G2:G632)</f>
+        <v>67.402751293284126</v>
+      </c>
+      <c r="I60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!H2:H632)</f>
+        <v>6.463848033839092</v>
+      </c>
+      <c r="J60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!I2:I632)</f>
+        <v>32.513336793123308</v>
+      </c>
+      <c r="K60" s="5">
+        <f>[1]!DAGOSTINO('Dados 3'!J2:J632)</f>
+        <v>14.362008586804965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <f>[1]!DPTEST('Dados 3'!A2:A632)</f>
+        <v>1.7428503085170632E-10</v>
+      </c>
+      <c r="C61">
+        <f>[1]!DPTEST('Dados 3'!B2:B632)</f>
+        <v>0.82769667762198285</v>
+      </c>
+      <c r="D61">
+        <f>[1]!DPTEST('Dados 3'!C2:C632)</f>
+        <v>0.21265346376336258</v>
+      </c>
+      <c r="E61">
+        <f>[1]!DPTEST('Dados 3'!D2:D632)</f>
+        <v>2.1112886235515882E-3</v>
+      </c>
+      <c r="F61">
+        <f>[1]!DPTEST('Dados 3'!E2:E632)</f>
+        <v>1.3927024711257729E-7</v>
+      </c>
+      <c r="G61">
+        <f>[1]!DPTEST('Dados 3'!F2:F632)</f>
+        <v>5.1358477829046456E-2</v>
+      </c>
+      <c r="H61">
+        <f>[1]!DPTEST('Dados 3'!G2:G632)</f>
+        <v>2.3314683517128287E-15</v>
+      </c>
+      <c r="I61">
+        <f>[1]!DPTEST('Dados 3'!H2:H632)</f>
+        <v>3.9481462662287581E-2</v>
+      </c>
+      <c r="J61">
+        <f>[1]!DPTEST('Dados 3'!I2:I632)</f>
+        <v>8.7059991660254354E-8</v>
+      </c>
+      <c r="K61">
+        <f>[1]!DPTEST('Dados 3'!J2:J632)</f>
+        <v>7.6090328814459873E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>0.05</v>
+      </c>
+      <c r="C62">
+        <v>0.05</v>
+      </c>
+      <c r="D62">
+        <v>0.05</v>
+      </c>
+      <c r="E62">
+        <v>0.05</v>
+      </c>
+      <c r="F62">
+        <v>0.05</v>
+      </c>
+      <c r="G62">
+        <v>0.05</v>
+      </c>
+      <c r="H62">
+        <v>0.05</v>
+      </c>
+      <c r="I62">
+        <v>0.05</v>
+      </c>
+      <c r="J62">
+        <v>0.05</v>
+      </c>
+      <c r="K62">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f t="shared" ref="B63:K63" si="3">IF(B61&lt;B62,"no","yes")</f>
+        <v>no</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
+      <c r="H63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="I63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="J63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+      <c r="K63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>no</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEBC5A-D03F-448E-BD92-B783B9DE538E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -21740,7 +23018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE93E1B-E5F8-4FE2-BE89-86A71282FAD0}">
   <dimension ref="A1:U143"/>
   <sheetViews>
@@ -25630,7 +26908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672F71B-444F-4BFC-A705-43CFEDA600D3}">
   <dimension ref="A1:W41"/>
   <sheetViews>
@@ -26666,7 +27944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A2F5E4-D2C4-4EE9-B4B1-CB78F2DEDCEC}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -27081,7 +28359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675EA704-664F-4B90-99B7-5846CBAE1A7F}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -88667,16 +89945,16 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
@@ -88748,20 +90026,20 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L11" s="32"/>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64" t="s">
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
     </row>
     <row r="12" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
@@ -88908,20 +90186,20 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="L19" s="32"/>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64" t="s">
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
     </row>
     <row r="20" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L20" s="41"/>
@@ -89426,243 +90704,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18010CF6-58B9-4CCB-BD36-FD83501A558D}">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:R20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="13" width="8.88671875" style="29"/>
-    <col min="14" max="14" width="10.77734375" style="29" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="29" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="29"/>
-    <col min="17" max="17" width="9.5546875" style="29" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="58">
-        <v>23538.5</v>
-      </c>
-      <c r="D4" s="66">
-        <v>17652</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="66">
-        <v>14985</v>
-      </c>
-      <c r="H4" s="66">
-        <v>15051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="59">
-        <v>1E-4</v>
-      </c>
-      <c r="D5" s="59">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="59">
-        <v>1E-4</v>
-      </c>
-      <c r="H5" s="59">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="32"/>
-      <c r="M11" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="67">
-        <v>12.48</v>
-      </c>
-      <c r="N12" s="65">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="O12" s="65">
-        <v>43.5</v>
-      </c>
-      <c r="P12" s="67">
-        <v>4.7670000000000003</v>
-      </c>
-      <c r="Q12" s="67">
-        <v>6.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L13" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="61">
-        <v>1E-4</v>
-      </c>
-      <c r="N13" s="63">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="O13" s="61">
-        <v>1E-4</v>
-      </c>
-      <c r="P13" s="63">
-        <v>2.93E-2</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>1.1350000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="32"/>
-      <c r="M16" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L17" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="67">
-        <v>4.9939999999999998</v>
-      </c>
-      <c r="N17" s="65">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="O17" s="29">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="P17" s="67">
-        <v>8.17</v>
-      </c>
-      <c r="Q17" s="65">
-        <v>0.39169999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="12:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L18" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="62">
-        <v>1E-4</v>
-      </c>
-      <c r="N18" s="63">
-        <v>0.15620000000000001</v>
-      </c>
-      <c r="O18" s="62">
-        <v>1E-4</v>
-      </c>
-      <c r="P18" s="39">
-        <v>4.3730000000000002E-3</v>
-      </c>
-      <c r="Q18" s="63">
-        <v>0.53159999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L19" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408E699A-66C5-4EEC-84CF-2FA8C8B3EAA8}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -90510,12 +91555,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B88AB6A-7A2D-495D-80F8-714616FE22E5}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:I65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91359,1199 +92404,738 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843C2F2E-5D9C-4256-8201-6823B8716D50}">
-  <dimension ref="A1:K63"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18010CF6-58B9-4CCB-BD36-FD83501A558D}">
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="8.88671875" style="29"/>
+    <col min="13" max="13" width="8.88671875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="29"/>
+    <col min="17" max="17" width="9.5546875" style="29" customWidth="1"/>
+    <col min="18" max="20" width="8.88671875" style="29"/>
+    <col min="21" max="21" width="11.44140625" style="46" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="29"/>
+    <col min="24" max="24" width="12" style="29" customWidth="1"/>
+    <col min="25" max="25" width="11" style="29" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="29"/>
+    <col min="27" max="27" width="9.77734375" style="29" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="29"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="3" spans="1:29" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="30"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC3" s="60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="58">
+        <v>23538.5</v>
+      </c>
+      <c r="D4" s="65">
+        <v>17652</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="65">
+        <v>14985</v>
+      </c>
+      <c r="H4" s="65">
+        <v>15051</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="29">
+        <v>32332</v>
+      </c>
+      <c r="N4" s="29">
+        <v>38682</v>
+      </c>
+      <c r="O4" s="29">
+        <v>34766</v>
+      </c>
+      <c r="P4" s="29">
+        <v>36689</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>39996</v>
+      </c>
+      <c r="U4" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="75">
+        <v>373.1</v>
+      </c>
+      <c r="X4" s="75">
+        <v>414.9</v>
+      </c>
+      <c r="Y4" s="75">
+        <v>430.7</v>
+      </c>
+      <c r="Z4" s="75">
+        <v>323.8</v>
+      </c>
+      <c r="AA4" s="75">
+        <v>372.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="H5" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="N5" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="O5" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="P5" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>1E-4</v>
+      </c>
+      <c r="U5" s="78"/>
+      <c r="V5" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="W5" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="X5" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="Y5" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="Z5" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="AA5" s="74">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="U6" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="76">
+        <v>12.48</v>
+      </c>
+      <c r="X6" s="77">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="Y6" s="77">
+        <v>43.5</v>
+      </c>
+      <c r="Z6" s="76">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="AA6" s="76">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="U7" s="47"/>
+      <c r="V7" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="W7" s="61">
+        <v>1E-4</v>
+      </c>
+      <c r="X7" s="63">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="Y7" s="61">
+        <v>1E-4</v>
+      </c>
+      <c r="Z7" s="63">
+        <v>2.93E-2</v>
+      </c>
+      <c r="AA7" s="39">
+        <v>1.1350000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="30"/>
+      <c r="AC8" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V9" s="30"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10" s="30"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="X10" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y10" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z10" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA10" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="V11" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="75">
+        <v>615.1</v>
+      </c>
+      <c r="X11" s="75">
+        <v>212.1</v>
+      </c>
+      <c r="Y11" s="75">
+        <v>679.1</v>
+      </c>
+      <c r="Z11" s="75">
+        <v>646.5</v>
+      </c>
+      <c r="AA11" s="75">
+        <v>729.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U12" s="80"/>
+      <c r="V12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="W12" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="X12" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="Y12" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="Z12" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="AA12" s="74">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U13" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="V13" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="W13" s="66">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="X13" s="64">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="Z13" s="66">
+        <v>8.17</v>
+      </c>
+      <c r="AA13" s="64">
+        <v>0.39169999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U14" s="81"/>
+      <c r="V14" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" s="62">
+        <v>1E-4</v>
+      </c>
+      <c r="X14" s="63">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="Y14" s="62">
+        <v>1E-4</v>
+      </c>
+      <c r="Z14" s="39">
+        <v>4.3730000000000002E-3</v>
+      </c>
+      <c r="AA14" s="63">
+        <v>0.53159999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L19" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1617A-FCDD-49AA-8F96-55E849241EB6}">
+  <dimension ref="A1:X11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="str">
-        <f>Dados!A1</f>
-        <v>WAVE1</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>Dados!B1</f>
-        <v>SLIE1</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>Dados!C1</f>
-        <v>WAVR1</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>Dados!D1</f>
-        <v>SLIR1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <f>[1]!SHAPIRO(Dados!A2:A174)</f>
-        <v>0.80115848119077926</v>
-      </c>
-      <c r="C4">
-        <f>[1]!SHAPIRO(Dados!B2:B174)</f>
-        <v>0.91075107430939484</v>
-      </c>
-      <c r="D4">
-        <f>[1]!SHAPIRO(Dados!C2:C174)</f>
-        <v>0.9855062782864521</v>
-      </c>
-      <c r="E4">
-        <f>[1]!SHAPIRO(Dados!D2:D174)</f>
-        <v>0.91033827950116231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <f>[1]!SWTEST(Dados!A2:A174)</f>
-        <v>4.496403249731884E-14</v>
-      </c>
-      <c r="C5">
-        <f>[1]!SWTEST(Dados!B2:B174)</f>
-        <v>9.2526831751982286E-9</v>
-      </c>
-      <c r="D5" s="14">
-        <f>[1]!SWTEST(Dados!C2:C174)</f>
-        <v>7.0246734004590028E-2</v>
-      </c>
-      <c r="E5">
-        <f>[1]!SWTEST(Dados!D2:D174)</f>
-        <v>8.704168608097973E-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
+        <v>600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
-      </c>
-      <c r="E6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f>IF(B5&lt;B6,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f>IF(C5&lt;C6,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f>IF(D5&lt;D6,"no","yes")</f>
-        <v>yes</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>IF(E5&lt;E6,"no","yes")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6">
+        <v>626</v>
+      </c>
+      <c r="H6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6">
+        <v>171</v>
+      </c>
+      <c r="K6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6">
+        <v>630</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N6">
+        <v>173</v>
+      </c>
+      <c r="P6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6">
+        <v>174</v>
+      </c>
+      <c r="R6" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6">
+        <v>631</v>
+      </c>
+      <c r="U6" t="s">
+        <v>184</v>
+      </c>
+      <c r="V6">
+        <v>631</v>
+      </c>
+      <c r="W6" t="s">
+        <v>184</v>
+      </c>
+      <c r="X6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7">
+        <v>284.64999999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7">
+        <v>89.352000000000004</v>
+      </c>
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7">
+        <v>294.77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7">
+        <v>104.23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7">
+        <v>290.82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N7">
+        <v>111.18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7">
+        <v>64.489000000000004</v>
+      </c>
+      <c r="R7" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7">
+        <v>338.51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7">
+        <v>297.38</v>
+      </c>
+      <c r="W7" t="s">
+        <v>185</v>
+      </c>
+      <c r="X7">
+        <v>105.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5">
-        <f>[1]!DAGOSTINO(Dados!A2:A174)</f>
-        <v>109.55819195047548</v>
-      </c>
-      <c r="C11" s="5">
-        <f>[1]!DAGOSTINO(Dados!B2:B174)</f>
-        <v>68.111456812572357</v>
-      </c>
-      <c r="D11" s="5">
-        <f>[1]!DAGOSTINO(Dados!C2:C174)</f>
-        <v>7.1475993323234217</v>
-      </c>
-      <c r="E11" s="5">
-        <f>[1]!DAGOSTINO(Dados!D2:D174)</f>
-        <v>18.44494768419888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <f>[1]!DPTEST(Dados!A2:A174)</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>[1]!DPTEST(Dados!B2:B174)</f>
-        <v>1.6653345369377348E-15</v>
-      </c>
-      <c r="D12">
-        <f>[1]!DPTEST(Dados!C2:C174)</f>
-        <v>2.8049073828181559E-2</v>
-      </c>
-      <c r="E12">
-        <f>[1]!DPTEST(Dados!D2:D174)</f>
-        <v>9.8793984360967535E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0.05</v>
-      </c>
-      <c r="C13">
-        <v>0.05</v>
-      </c>
-      <c r="D13">
-        <v>0.05</v>
-      </c>
-      <c r="E13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f>IF(B12&lt;B13,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>IF(C12&lt;C13,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>IF(D12&lt;D13,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>IF(E12&lt;E13,"no","yes")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="str">
-        <f>Dados!E1</f>
-        <v>SPLE2</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>Dados!F1</f>
-        <v>WAVE2</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>Dados!G1</f>
-        <v>WAVR2</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>Dados!H1</f>
-        <v>SPLR2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <f>[1]!SHAPIRO(Dados!E2:E632)</f>
-        <v>0.90918789145671364</v>
-      </c>
-      <c r="C19">
-        <f>[1]!SHAPIRO(Dados!F2:F632)</f>
-        <v>0.89584128023351739</v>
-      </c>
-      <c r="D19">
-        <f>[1]!SHAPIRO(Dados!G2:G632)</f>
-        <v>0.99477722998603646</v>
-      </c>
-      <c r="E19">
-        <f>[1]!SHAPIRO(Dados!H2:H632)</f>
-        <v>0.90917695465804693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <f>[1]!SWTEST(Dados!E2:E632)</f>
-        <v>6.8084902160592264E-9</v>
-      </c>
-      <c r="C20">
-        <f>[1]!SWTEST(Dados!F2:F632)</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f>[1]!SWTEST(Dados!G2:G632)</f>
-        <v>3.0106380813000544E-2</v>
-      </c>
-      <c r="E20">
-        <f>[1]!SWTEST(Dados!H2:H632)</f>
-        <v>6.7975506334860825E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>0.05</v>
-      </c>
-      <c r="C21">
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <v>0.05</v>
-      </c>
-      <c r="E21">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f>IF(B20&lt;B21,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <f>IF(C20&lt;C21,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f>IF(D20&lt;D21,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f>IF(E20&lt;E21,"no","yes")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5">
-        <f>[1]!DAGOSTINO(Dados!E2:E632)</f>
-        <v>68.294643969736057</v>
-      </c>
-      <c r="C26" s="5">
-        <f>[1]!DAGOSTINO(Dados!F2:F632)</f>
-        <v>107.93004783633144</v>
-      </c>
-      <c r="D26" s="5">
-        <f>[1]!DAGOSTINO(Dados!G2:G632)</f>
-        <v>4.34119996282132</v>
-      </c>
-      <c r="E26" s="5">
-        <f>[1]!DAGOSTINO(Dados!H2:H632)</f>
-        <v>18.482701794256801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <f>[1]!DPTEST(Dados!E2:E632)</f>
-        <v>1.4432899320127035E-15</v>
-      </c>
-      <c r="C27">
-        <f>[1]!DPTEST(Dados!F2:F632)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
-        <f>[1]!DPTEST(Dados!G2:G632)</f>
-        <v>0.11410913300976466</v>
-      </c>
-      <c r="E27">
-        <f>[1]!DPTEST(Dados!H2:H632)</f>
-        <v>9.6946536925157645E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>0.05</v>
-      </c>
-      <c r="C28">
-        <v>0.05</v>
-      </c>
-      <c r="D28">
-        <v>0.05</v>
-      </c>
-      <c r="E28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f>IF(B27&lt;B28,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C29" s="4" t="str">
-        <f>IF(C27&lt;C28,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="D29" s="13" t="str">
-        <f>IF(D27&lt;D28,"no","yes")</f>
-        <v>yes</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f>IF(E27&lt;E28,"no","yes")</f>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="str">
-        <f>Dados!I1</f>
-        <v>WAVAR</v>
-      </c>
-      <c r="C35" s="2" t="str">
-        <f>Dados!J1</f>
-        <v>WAVAL</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f>Dados!K1</f>
-        <v>WAVPOP</v>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f>Dados!L1</f>
-        <v>WAVLA</v>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f>Dados!M1</f>
-        <v>WAVLO</v>
-      </c>
-      <c r="G35" s="2" t="str">
-        <f>Dados!N1</f>
-        <v>SPLAL</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f>Dados!O1</f>
-        <v>SPLAR</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f>Dados!P1</f>
-        <v>SPLPOP</v>
-      </c>
-      <c r="J35" s="2" t="str">
-        <f>Dados!Q1</f>
-        <v>SPLLA</v>
-      </c>
-      <c r="K35" s="2" t="str">
-        <f>Dados!R1</f>
-        <v>SPLLO</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36">
-        <f>[1]!SHAPIRO(Dados!I2:I632)</f>
-        <v>0.98361598971704423</v>
-      </c>
-      <c r="C36">
-        <f>[1]!SHAPIRO(Dados!J2:J632)</f>
-        <v>0.94388025710353329</v>
-      </c>
-      <c r="D36">
-        <f>[1]!SHAPIRO(Dados!K2:K632)</f>
-        <v>0.96737114695403092</v>
-      </c>
-      <c r="E36">
-        <f>[1]!SHAPIRO(Dados!L2:L632)</f>
-        <v>0.97964699031475488</v>
-      </c>
-      <c r="F36">
-        <f>[1]!SHAPIRO(Dados!M2:M632)</f>
-        <v>0.98776191861219853</v>
-      </c>
-      <c r="G36">
-        <f>[1]!SHAPIRO(Dados!N2:N632)</f>
-        <v>0.89459825272708005</v>
-      </c>
-      <c r="H36">
-        <f>[1]!SHAPIRO(Dados!O2:O632)</f>
-        <v>0.93311569230547864</v>
-      </c>
-      <c r="I36">
-        <f>[1]!SHAPIRO(Dados!P2:P632)</f>
-        <v>0.9774526639216351</v>
-      </c>
-      <c r="J36">
-        <f>[1]!SHAPIRO(Dados!Q2:Q632)</f>
-        <v>0.9834380740070624</v>
-      </c>
-      <c r="K36">
-        <f>[1]!SHAPIRO(Dados!R2:R632)</f>
-        <v>0.96576718406084261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37">
-        <f>[1]!SWTEST(Dados!I2:I632)</f>
-        <v>1.6122575535737482E-6</v>
-      </c>
-      <c r="C37">
-        <f>[1]!SWTEST(Dados!J2:J632)</f>
-        <v>1.0325074129013956E-14</v>
-      </c>
-      <c r="D37">
-        <f>[1]!SWTEST(Dados!K2:K632)</f>
-        <v>1.2327960874358723E-10</v>
-      </c>
-      <c r="E37">
-        <f>[1]!SWTEST(Dados!L2:L632)</f>
-        <v>1.0927364491042368E-7</v>
-      </c>
-      <c r="F37">
-        <f>[1]!SWTEST(Dados!M2:M632)</f>
-        <v>3.9506006302758578E-5</v>
-      </c>
-      <c r="G37">
-        <f>[1]!SWTEST(Dados!N2:N632)</f>
-        <v>8.801634976407513E-10</v>
-      </c>
-      <c r="H37">
-        <f>[1]!SWTEST(Dados!O2:O632)</f>
-        <v>3.188259197761667E-7</v>
-      </c>
-      <c r="I37">
-        <f>[1]!SWTEST(Dados!P2:P632)</f>
-        <v>6.2920627456956035E-3</v>
-      </c>
-      <c r="J37">
-        <f>[1]!SWTEST(Dados!Q2:Q632)</f>
-        <v>3.6685806763014361E-2</v>
-      </c>
-      <c r="K37">
-        <f>[1]!SWTEST(Dados!R2:R632)</f>
-        <v>2.810310972291008E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38">
-        <v>0.05</v>
-      </c>
-      <c r="C38">
-        <v>0.05</v>
-      </c>
-      <c r="D38">
-        <v>0.05</v>
-      </c>
-      <c r="E38">
-        <v>0.05</v>
-      </c>
-      <c r="F38">
-        <v>0.05</v>
-      </c>
-      <c r="G38">
-        <v>0.05</v>
-      </c>
-      <c r="H38">
-        <v>0.05</v>
-      </c>
-      <c r="I38">
-        <v>0.05</v>
-      </c>
-      <c r="J38">
-        <v>0.05</v>
-      </c>
-      <c r="K38">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="4" t="str">
-        <f t="shared" ref="B39:K39" si="0">IF(B37&lt;B38,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="D39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="E39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="F39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="H39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="I39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="J39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-      <c r="K39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="5">
-        <f>[1]!DAGOSTINO(Dados!I2:I632)</f>
-        <v>38.407345665923629</v>
-      </c>
-      <c r="C43" s="5">
-        <f>[1]!DAGOSTINO(Dados!J2:J632)</f>
-        <v>46.787642811143257</v>
-      </c>
-      <c r="D43" s="5">
-        <f>[1]!DAGOSTINO(Dados!K2:K632)</f>
-        <v>44.223829666217796</v>
-      </c>
-      <c r="E43" s="5">
-        <f>[1]!DAGOSTINO(Dados!L2:L632)</f>
-        <v>67.402751293284126</v>
-      </c>
-      <c r="F43" s="5">
-        <f>[1]!DAGOSTINO(Dados!M2:M632)</f>
-        <v>32.513336793123308</v>
-      </c>
-      <c r="G43" s="5">
-        <f>[1]!DAGOSTINO(Dados!N2:N632)</f>
-        <v>12.406985584980831</v>
-      </c>
-      <c r="H43" s="5">
-        <f>[1]!DAGOSTINO(Dados!O2:O632)</f>
-        <v>49.259330225087247</v>
-      </c>
-      <c r="I43" s="5">
-        <f>[1]!DAGOSTINO(Dados!P2:P632)</f>
-        <v>10.077979807949475</v>
-      </c>
-      <c r="J43" s="5">
-        <f>[1]!DAGOSTINO(Dados!Q2:Q632)</f>
-        <v>6.463848033839092</v>
-      </c>
-      <c r="K43" s="5">
-        <f>[1]!DAGOSTINO(Dados!R2:R632)</f>
-        <v>14.362008586804965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44">
-        <f>[1]!DPTEST(Dados!I2:I632)</f>
-        <v>4.570364642297875E-9</v>
-      </c>
-      <c r="C44">
-        <f>[1]!DPTEST(Dados!J2:J632)</f>
-        <v>6.9213745845786434E-11</v>
-      </c>
-      <c r="D44">
-        <f>[1]!DPTEST(Dados!K2:K632)</f>
-        <v>2.4941204657125127E-10</v>
-      </c>
-      <c r="E44">
-        <f>[1]!DPTEST(Dados!L2:L632)</f>
-        <v>2.3314683517128287E-15</v>
-      </c>
-      <c r="F44">
-        <f>[1]!DPTEST(Dados!M2:M632)</f>
-        <v>8.7059991660254354E-8</v>
-      </c>
-      <c r="G44">
-        <f>[1]!DPTEST(Dados!N2:N632)</f>
-        <v>2.0223546209298116E-3</v>
-      </c>
-      <c r="H44">
-        <f>[1]!DPTEST(Dados!O2:O632)</f>
-        <v>2.0112800314109336E-11</v>
-      </c>
-      <c r="I44">
-        <f>[1]!DPTEST(Dados!P2:P632)</f>
-        <v>6.480290729409699E-3</v>
-      </c>
-      <c r="J44">
-        <f>[1]!DPTEST(Dados!Q2:Q632)</f>
-        <v>3.9481462662287581E-2</v>
-      </c>
-      <c r="K44">
-        <f>[1]!DPTEST(Dados!R2:R632)</f>
-        <v>7.6090328814459873E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>0.05</v>
-      </c>
-      <c r="C45">
-        <v>0.05</v>
-      </c>
-      <c r="D45">
-        <v>0.05</v>
-      </c>
-      <c r="E45">
-        <v>0.05</v>
-      </c>
-      <c r="F45">
-        <v>0.05</v>
-      </c>
-      <c r="G45">
-        <v>0.05</v>
-      </c>
-      <c r="H45">
-        <v>0.05</v>
-      </c>
-      <c r="I45">
-        <v>0.05</v>
-      </c>
-      <c r="J45">
-        <v>0.05</v>
-      </c>
-      <c r="K45">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" ref="B46:K46" si="1">IF(B44&lt;B45,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="D46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="E46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="F46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="H46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="I46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="J46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-      <c r="K46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="str">
-        <f>'Dados 3'!A1</f>
-        <v>WAVAL</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <f>'Dados 3'!B1</f>
-        <v>SPLAL</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f>'Dados 3'!C1</f>
-        <v>WAVAR</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f>'Dados 3'!D1</f>
-        <v>SPLAR</v>
-      </c>
-      <c r="F52" s="2" t="str">
-        <f>'Dados 3'!E1</f>
-        <v>WAVP</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f>'Dados 3'!F1</f>
-        <v>SPLP</v>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f>'Dados 3'!G1</f>
-        <v>WALLA</v>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f>'Dados 3'!H1</f>
-        <v>SPLLA</v>
-      </c>
-      <c r="J52" s="2" t="str">
-        <f>'Dados 3'!I1</f>
-        <v>WAVLO</v>
-      </c>
-      <c r="K52" s="2" t="str">
-        <f>'Dados 3'!J1</f>
-        <v>SPLLO</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53">
-        <f>[1]!SHAPIRO('Dados 3'!A2:A632)</f>
-        <v>0.96130328487052552</v>
-      </c>
-      <c r="C53">
-        <f>[1]!SHAPIRO('Dados 3'!B2:B632)</f>
-        <v>0.99381630746129668</v>
-      </c>
-      <c r="D53">
-        <f>[1]!SHAPIRO('Dados 3'!C2:C632)</f>
-        <v>0.99553289472392192</v>
-      </c>
-      <c r="E53">
-        <f>[1]!SHAPIRO('Dados 3'!D2:D632)</f>
-        <v>0.97699874649196106</v>
-      </c>
-      <c r="F53">
-        <f>[1]!SHAPIRO('Dados 3'!E2:E632)</f>
-        <v>0.97072711687836488</v>
-      </c>
-      <c r="G53">
-        <f>[1]!SHAPIRO('Dados 3'!F2:F632)</f>
-        <v>0.98401335914346855</v>
-      </c>
-      <c r="H53">
-        <f>[1]!SHAPIRO('Dados 3'!G2:G632)</f>
-        <v>0.97964699031475488</v>
-      </c>
-      <c r="I53">
-        <f>[1]!SHAPIRO('Dados 3'!H2:H632)</f>
-        <v>0.9834380740070624</v>
-      </c>
-      <c r="J53">
-        <f>[1]!SHAPIRO('Dados 3'!I2:I632)</f>
-        <v>0.98776191861219853</v>
-      </c>
-      <c r="K53">
-        <f>[1]!SHAPIRO('Dados 3'!J2:J632)</f>
-        <v>0.96576718406084261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
-        <f>[1]!SWTEST('Dados 3'!A2:A632)</f>
-        <v>1.8200996265704816E-11</v>
-      </c>
-      <c r="C54">
-        <f>[1]!SWTEST('Dados 3'!B2:B632)</f>
-        <v>0.78368244621594163</v>
-      </c>
-      <c r="D54">
-        <f>[1]!SWTEST('Dados 3'!C2:C632)</f>
-        <v>6.9218013873360462E-2</v>
-      </c>
-      <c r="E54">
-        <f>[1]!SWTEST('Dados 3'!D2:D632)</f>
-        <v>6.1347448624313738E-3</v>
-      </c>
-      <c r="F54">
-        <f>[1]!SWTEST('Dados 3'!E2:E632)</f>
-        <v>6.7383054691561028E-10</v>
-      </c>
-      <c r="G54">
-        <f>[1]!SWTEST('Dados 3'!F2:F632)</f>
-        <v>4.4766711519299118E-2</v>
-      </c>
-      <c r="H54">
-        <f>[1]!SWTEST('Dados 3'!G2:G632)</f>
-        <v>1.0927364491042368E-7</v>
-      </c>
-      <c r="I54">
-        <f>[1]!SWTEST('Dados 3'!H2:H632)</f>
-        <v>3.6685806763014361E-2</v>
-      </c>
-      <c r="J54">
-        <f>[1]!SWTEST('Dados 3'!I2:I632)</f>
-        <v>3.9506006302758578E-5</v>
-      </c>
-      <c r="K54">
-        <f>[1]!SWTEST('Dados 3'!J2:J632)</f>
-        <v>2.810310972291008E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55">
-        <v>0.05</v>
-      </c>
-      <c r="C55">
-        <v>0.05</v>
-      </c>
-      <c r="D55">
-        <v>0.05</v>
-      </c>
-      <c r="E55">
-        <v>0.05</v>
-      </c>
-      <c r="F55">
-        <v>0.05</v>
-      </c>
-      <c r="G55">
-        <v>0.05</v>
-      </c>
-      <c r="H55">
-        <v>0.05</v>
-      </c>
-      <c r="I55">
-        <v>0.05</v>
-      </c>
-      <c r="J55">
-        <v>0.05</v>
-      </c>
-      <c r="K55">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" ref="B56:K56" si="2">IF(B54&lt;B55,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>yes</v>
-      </c>
-      <c r="D56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>yes</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-      <c r="F56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-      <c r="H56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-      <c r="I56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-      <c r="J56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-      <c r="K56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>no</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!A2:A632)</f>
-        <v>44.940658383238741</v>
-      </c>
-      <c r="C60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!B2:B632)</f>
-        <v>0.37821704617404739</v>
-      </c>
-      <c r="D60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!C2:C632)</f>
-        <v>3.0961827377001594</v>
-      </c>
-      <c r="E60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!D2:D632)</f>
-        <v>12.320913591693291</v>
-      </c>
-      <c r="F60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!E2:E632)</f>
-        <v>31.57369913521557</v>
-      </c>
-      <c r="G60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!F2:F632)</f>
-        <v>5.9378505146490905</v>
-      </c>
-      <c r="H60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!G2:G632)</f>
-        <v>67.402751293284126</v>
-      </c>
-      <c r="I60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!H2:H632)</f>
-        <v>6.463848033839092</v>
-      </c>
-      <c r="J60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!I2:I632)</f>
-        <v>32.513336793123308</v>
-      </c>
-      <c r="K60" s="5">
-        <f>[1]!DAGOSTINO('Dados 3'!J2:J632)</f>
-        <v>14.362008586804965</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61">
-        <f>[1]!DPTEST('Dados 3'!A2:A632)</f>
-        <v>1.7428503085170632E-10</v>
-      </c>
-      <c r="C61">
-        <f>[1]!DPTEST('Dados 3'!B2:B632)</f>
-        <v>0.82769667762198285</v>
-      </c>
-      <c r="D61">
-        <f>[1]!DPTEST('Dados 3'!C2:C632)</f>
-        <v>0.21265346376336258</v>
-      </c>
-      <c r="E61">
-        <f>[1]!DPTEST('Dados 3'!D2:D632)</f>
-        <v>2.1112886235515882E-3</v>
-      </c>
-      <c r="F61">
-        <f>[1]!DPTEST('Dados 3'!E2:E632)</f>
-        <v>1.3927024711257729E-7</v>
-      </c>
-      <c r="G61">
-        <f>[1]!DPTEST('Dados 3'!F2:F632)</f>
-        <v>5.1358477829046456E-2</v>
-      </c>
-      <c r="H61">
-        <f>[1]!DPTEST('Dados 3'!G2:G632)</f>
-        <v>2.3314683517128287E-15</v>
-      </c>
-      <c r="I61">
-        <f>[1]!DPTEST('Dados 3'!H2:H632)</f>
-        <v>3.9481462662287581E-2</v>
-      </c>
-      <c r="J61">
-        <f>[1]!DPTEST('Dados 3'!I2:I632)</f>
-        <v>8.7059991660254354E-8</v>
-      </c>
-      <c r="K61">
-        <f>[1]!DPTEST('Dados 3'!J2:J632)</f>
-        <v>7.6090328814459873E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62">
-        <v>0.05</v>
-      </c>
-      <c r="C62">
-        <v>0.05</v>
-      </c>
-      <c r="D62">
-        <v>0.05</v>
-      </c>
-      <c r="E62">
-        <v>0.05</v>
-      </c>
-      <c r="F62">
-        <v>0.05</v>
-      </c>
-      <c r="G62">
-        <v>0.05</v>
-      </c>
-      <c r="H62">
-        <v>0.05</v>
-      </c>
-      <c r="I62">
-        <v>0.05</v>
-      </c>
-      <c r="J62">
-        <v>0.05</v>
-      </c>
-      <c r="K62">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="4" t="str">
-        <f t="shared" ref="B63:K63" si="3">IF(B61&lt;B62,"no","yes")</f>
-        <v>no</v>
-      </c>
-      <c r="C63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-      <c r="D63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-      <c r="E63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="F63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="G63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
-      </c>
-      <c r="H63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="I63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="J63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="K63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <v>186</v>
+      </c>
+      <c r="B9">
+        <v>32332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9">
+        <v>38682</v>
+      </c>
+      <c r="K9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9">
+        <v>34766</v>
+      </c>
+      <c r="P9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9">
+        <v>36689</v>
+      </c>
+      <c r="U9" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9">
+        <v>39996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10">
+        <v>5.0186999999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="24">
+        <v>5.2025999999999997E-7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10">
+        <v>5.5622999999999996</v>
+      </c>
+      <c r="H10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="24">
+        <v>2.6627000000000001E-8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10">
+        <v>7.3007</v>
+      </c>
+      <c r="M10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="24">
+        <v>2.863E-13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10">
+        <v>6.7050000000000001</v>
+      </c>
+      <c r="R10" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" s="24">
+        <v>2.0146000000000001E-11</v>
+      </c>
+      <c r="U10" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10">
+        <v>5.4871999999999996</v>
+      </c>
+      <c r="W10" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" s="24">
+        <v>4.0838999999999999E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11">
+        <v>1E-4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11">
+        <v>1E-4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>188</v>
+      </c>
+      <c r="R11">
+        <v>1E-4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" t="s">
+        <v>188</v>
+      </c>
+      <c r="W11">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
